--- a/khu/(경희대)분석모듈정보_종합.xlsx
+++ b/khu/(경희대)분석모듈정보_종합.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\khu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239278C8-2B35-429C-9E62-8ABE883ED004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD413485-7361-4C54-AB2B-6153D17B4BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="282">
   <si>
     <t>피해범위</t>
   </si>
@@ -1224,7 +1224,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>실시간고립위험지역_면단위</t>
+    <t>실시간고립위험지역_면단위
+(ISORE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAV_20210325T0901_TYPHN_IMGRGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고립위험지역 기준 피해 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_ISORE_20210101T0000_TYPHN_DAMAGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1298,7 +1311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,6 +1339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1430,40 +1449,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1472,9 +1506,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,49 +1533,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1884,16 +1921,16 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="36" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1904,10 +1941,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1916,10 +1953,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1928,10 +1965,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1940,10 +1977,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1952,10 +1989,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1964,10 +2001,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1976,10 +2013,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1988,16 +2025,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -2008,10 +2045,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
@@ -2020,10 +2057,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2032,10 +2069,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="3" t="s">
         <v>1</v>
       </c>
@@ -2044,10 +2081,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="3" t="s">
         <v>6</v>
       </c>
@@ -2056,10 +2093,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
@@ -2068,10 +2105,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2080,10 +2117,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
@@ -2092,16 +2129,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="32" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2112,10 +2149,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2124,10 +2161,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2136,10 +2173,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2148,16 +2185,16 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="32" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2168,10 +2205,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2180,10 +2217,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
@@ -2192,10 +2229,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
@@ -2204,16 +2241,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2224,10 +2261,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="30"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="3" t="s">
         <v>14</v>
       </c>
@@ -2236,10 +2273,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="4" t="s">
         <v>16</v>
       </c>
@@ -2248,16 +2285,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2268,10 +2305,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="1" t="s">
         <v>21</v>
       </c>
@@ -2280,10 +2317,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
@@ -2292,10 +2329,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
@@ -2304,10 +2341,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2349,30 +2386,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="D31:D35"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="D12:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2400,22 +2437,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2435,7 +2472,7 @@
       <c r="E2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>92</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2487,7 +2524,7 @@
       <c r="E4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>98</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2643,7 +2680,7 @@
       <c r="E10" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2663,7 +2700,7 @@
       <c r="E11" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2708,22 +2745,22 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>129</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -2731,134 +2768,134 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2924,7 +2961,7 @@
       <c r="F24" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
@@ -3114,10 +3151,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E650E0-E321-4F54-A24A-A8C1803AD1CB}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3125,14 +3162,14 @@
     <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="1.875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="39.75" style="11" customWidth="1"/>
+    <col min="5" max="5" width="1.875" style="25" customWidth="1"/>
     <col min="6" max="6" width="40.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -3145,10 +3182,10 @@
         <v>190</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="27" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3174,10 +3211,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -3186,7 +3223,7 @@
       <c r="D3" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="3" t="s">
         <v>197</v>
       </c>
@@ -3195,32 +3232,32 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="10">
         <v>47170</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="3" t="s">
         <v>198</v>
       </c>
@@ -3229,11 +3266,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="38"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="3" t="s">
         <v>199</v>
       </c>
@@ -3242,11 +3279,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="3" t="s">
         <v>196</v>
       </c>
@@ -3255,24 +3292,24 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="21" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="38"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="3" t="s">
         <v>200</v>
       </c>
@@ -3281,11 +3318,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="39"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="3" t="s">
         <v>201</v>
       </c>
@@ -3294,10 +3331,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3306,7 +3343,7 @@
       <c r="D11" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="3" t="s">
         <v>197</v>
       </c>
@@ -3315,32 +3352,32 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="10">
         <v>47170</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="3" t="s">
         <v>206</v>
       </c>
@@ -3349,11 +3386,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="38"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="3" t="s">
         <v>207</v>
       </c>
@@ -3362,11 +3399,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="38"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="3" t="s">
         <v>208</v>
       </c>
@@ -3375,24 +3412,24 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="21" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="38"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="3" t="s">
         <v>210</v>
       </c>
@@ -3401,11 +3438,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="3" t="s">
         <v>211</v>
       </c>
@@ -3414,10 +3451,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="28" t="s">
         <v>214</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -3426,7 +3463,7 @@
       <c r="D19" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="10" t="s">
         <v>215</v>
       </c>
@@ -3435,15 +3472,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="10">
         <v>47170</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="10" t="s">
         <v>216</v>
       </c>
@@ -3452,15 +3489,15 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="10" t="s">
         <v>217</v>
       </c>
@@ -3469,11 +3506,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="40"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="10" t="s">
         <v>218</v>
       </c>
@@ -3482,19 +3519,19 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="28" t="s">
         <v>221</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="10" t="s">
         <v>222</v>
       </c>
@@ -3503,15 +3540,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="10">
         <v>47170</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="10" t="s">
         <v>223</v>
       </c>
@@ -3520,15 +3557,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="10" t="s">
         <v>224</v>
       </c>
@@ -3537,11 +3574,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="40"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="10" t="s">
         <v>225</v>
       </c>
@@ -3550,10 +3587,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="28" t="s">
         <v>226</v>
       </c>
       <c r="C27" s="10">
@@ -3562,7 +3599,7 @@
       <c r="D27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="10" t="s">
         <v>227</v>
       </c>
@@ -3571,15 +3608,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="38"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="10" t="s">
         <v>228</v>
       </c>
@@ -3588,11 +3625,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="39"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="10" t="s">
         <v>229</v>
       </c>
@@ -3601,10 +3638,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="36" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="10">
@@ -3613,7 +3650,7 @@
       <c r="D30" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="37"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="9" t="s">
         <v>235</v>
       </c>
@@ -3622,15 +3659,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="10">
         <v>128.80800199999999</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="41"/>
       <c r="F31" s="10" t="s">
         <v>236</v>
       </c>
@@ -3639,15 +3676,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="10">
         <v>36.571593</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E32" s="39"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="10" t="s">
         <v>237</v>
       </c>
@@ -3656,10 +3693,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="9">
@@ -3668,7 +3705,7 @@
       <c r="D33" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E33" s="40"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="9" t="s">
         <v>242</v>
       </c>
@@ -3677,15 +3714,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="40"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="10" t="s">
         <v>243</v>
       </c>
@@ -3694,11 +3731,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="40"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="10" t="s">
         <v>244</v>
       </c>
@@ -3707,11 +3744,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="40"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="10" t="s">
         <v>245</v>
       </c>
@@ -3720,11 +3757,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="40"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="10" t="s">
         <v>246</v>
       </c>
@@ -3733,240 +3770,351 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="22">
         <v>47930</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="24" t="s">
+      <c r="E38" s="39"/>
+      <c r="F38" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="22" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="24">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="22">
         <v>129.39964599999999</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="24" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="24">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="22">
         <v>36.815044999999998</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="24" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="21" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="39"/>
+      <c r="F41" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="21" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="23" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="21" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="23" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="21" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="24" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="22" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="22">
         <v>47930</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="21" t="s">
         <v>195</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="22" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="23" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="21" t="s">
         <v>269</v>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="22" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="44" t="s">
         <v>278</v>
       </c>
+      <c r="B47" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="46">
+        <v>47930</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B54" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C54" s="23">
         <v>42</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D54" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="11" t="s">
+      <c r="E54" s="40"/>
+      <c r="F54" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G54" s="23" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="12" t="s">
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D55" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="12" t="s">
+      <c r="E55" s="42"/>
+      <c r="F55" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G55" s="23" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D60"/>
-      <c r="E60" s="42"/>
+      <c r="D59"/>
+      <c r="E59" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
+  <mergeCells count="48">
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="E30:E32"/>
@@ -3980,29 +4128,13 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
